--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Milwaukee_Bucks__.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Milwaukee_Bucks__.xlsx
@@ -588,67 +588,67 @@
         <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>721</v>
+        <v>752</v>
       </c>
       <c r="G2" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H2" t="n">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="I2" t="n">
-        <v>0.498</v>
+        <v>0.489</v>
       </c>
       <c r="J2" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K2" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L2" t="n">
-        <v>0.429</v>
+        <v>0.422</v>
       </c>
       <c r="M2" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.667</v>
       </c>
       <c r="P2" t="n">
-        <v>0.654</v>
+        <v>0.642</v>
       </c>
       <c r="Q2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="S2" t="n">
-        <v>0.76</v>
+        <v>0.741</v>
       </c>
       <c r="T2" t="n">
         <v>21</v>
       </c>
       <c r="U2" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="V2" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W2" t="n">
         <v>36</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
         <v>8</v>
@@ -657,10 +657,10 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="n">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3">
@@ -676,79 +676,79 @@
         <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="G3" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H3" t="n">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="I3" t="n">
-        <v>0.53</v>
+        <v>0.523</v>
       </c>
       <c r="J3" t="n">
         <v>27</v>
       </c>
       <c r="K3" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3</v>
+        <v>0.293</v>
       </c>
       <c r="M3" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N3" t="n">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="O3" t="n">
-        <v>0.595</v>
+        <v>0.587</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.555</v>
       </c>
       <c r="Q3" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="R3" t="n">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="S3" t="n">
-        <v>0.679</v>
+        <v>0.674</v>
       </c>
       <c r="T3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U3" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="V3" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="W3" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AB3" t="n">
-        <v>607</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4">
@@ -764,43 +764,43 @@
         <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>693</v>
+        <v>718</v>
       </c>
       <c r="G4" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H4" t="n">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I4" t="n">
-        <v>0.451</v>
+        <v>0.447</v>
       </c>
       <c r="J4" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K4" t="n">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="L4" t="n">
-        <v>0.425</v>
+        <v>0.42</v>
       </c>
       <c r="M4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O4" t="n">
         <v>0.514</v>
       </c>
       <c r="P4" t="n">
-        <v>0.602</v>
+        <v>0.597</v>
       </c>
       <c r="Q4" t="n">
         <v>29</v>
@@ -815,13 +815,13 @@
         <v>13</v>
       </c>
       <c r="U4" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V4" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="W4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X4" t="n">
         <v>16</v>
@@ -836,7 +836,7 @@
         <v>38</v>
       </c>
       <c r="AB4" t="n">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5">
@@ -852,43 +852,43 @@
         <v>31</v>
       </c>
       <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
         <v>19</v>
       </c>
-      <c r="E5" t="n">
-        <v>18</v>
-      </c>
       <c r="F5" t="n">
-        <v>602</v>
+        <v>639</v>
       </c>
       <c r="G5" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H5" t="n">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="I5" t="n">
-        <v>0.448</v>
+        <v>0.463</v>
       </c>
       <c r="J5" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K5" t="n">
+        <v>102</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="M5" t="n">
         <v>95</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.358</v>
-      </c>
-      <c r="M5" t="n">
-        <v>86</v>
-      </c>
       <c r="N5" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="O5" t="n">
-        <v>0.497</v>
+        <v>0.519</v>
       </c>
       <c r="P5" t="n">
-        <v>0.511</v>
+        <v>0.528</v>
       </c>
       <c r="Q5" t="n">
         <v>21</v>
@@ -903,28 +903,28 @@
         <v>14</v>
       </c>
       <c r="U5" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="V5" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="W5" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="X5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB5" t="n">
-        <v>295</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6">
@@ -1028,79 +1028,79 @@
         <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>563</v>
+        <v>593</v>
       </c>
       <c r="G7" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H7" t="n">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="I7" t="n">
-        <v>0.469</v>
+        <v>0.473</v>
       </c>
       <c r="J7" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L7" t="n">
-        <v>0.407</v>
+        <v>0.404</v>
       </c>
       <c r="M7" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N7" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="O7" t="n">
-        <v>0.507</v>
+        <v>0.512</v>
       </c>
       <c r="P7" t="n">
-        <v>0.545</v>
+        <v>0.547</v>
       </c>
       <c r="Q7" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R7" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="T7" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="U7" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="V7" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="W7" t="n">
         <v>29</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA7" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AB7" t="n">
-        <v>300</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8">
@@ -1116,79 +1116,79 @@
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="G8" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H8" t="n">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="I8" t="n">
-        <v>0.42</v>
+        <v>0.418</v>
       </c>
       <c r="J8" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K8" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L8" t="n">
-        <v>0.33</v>
+        <v>0.343</v>
       </c>
       <c r="M8" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N8" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O8" t="n">
-        <v>0.477</v>
+        <v>0.469</v>
       </c>
       <c r="P8" t="n">
-        <v>0.484</v>
+        <v>0.487</v>
       </c>
       <c r="Q8" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="R8" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="S8" t="n">
-        <v>0.866</v>
+        <v>0.877</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U8" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="V8" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W8" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>3</v>
       </c>
       <c r="Z8" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AA8" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AB8" t="n">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9">
@@ -1292,22 +1292,22 @@
         <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="G10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I10" t="n">
-        <v>0.288</v>
+        <v>0.295</v>
       </c>
       <c r="J10" t="n">
         <v>11</v>
@@ -1319,40 +1319,40 @@
         <v>0.275</v>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O10" t="n">
-        <v>0.316</v>
+        <v>0.333</v>
       </c>
       <c r="P10" t="n">
-        <v>0.381</v>
+        <v>0.385</v>
       </c>
       <c r="Q10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U10" t="n">
         <v>30</v>
       </c>
       <c r="V10" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W10" t="n">
         <v>14</v>
       </c>
       <c r="X10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
         <v>1</v>
@@ -1364,7 +1364,7 @@
         <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1725,86 +1725,86 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Georgios Kalaitzakis</t>
+          <t>DeMarcus Cousins</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>20</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>7</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>10</v>
+      </c>
+      <c r="R15" t="n">
+        <v>12</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="T15" t="n">
         <v>5</v>
       </c>
-      <c r="H15" t="n">
-        <v>11</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="U15" t="n">
+        <v>16</v>
+      </c>
+      <c r="V15" t="n">
+        <v>21</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5</v>
+      </c>
+      <c r="X15" t="n">
         <v>4</v>
       </c>
-      <c r="L15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>9</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="T15" t="n">
-        <v>4</v>
-      </c>
-      <c r="U15" t="n">
-        <v>4</v>
-      </c>
-      <c r="V15" t="n">
-        <v>8</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="Y15" t="n">
         <v>0</v>
       </c>
-      <c r="X15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1</v>
-      </c>
       <c r="Z15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB15" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -1813,11 +1813,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DeMarcus Cousins</t>
+          <t>Javonte Smart</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -1826,43 +1826,43 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>15</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="n">
         <v>7</v>
       </c>
-      <c r="H16" t="n">
-        <v>18</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="O16" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="Q16" t="n">
         <v>5</v>
       </c>
-      <c r="L16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="R16" t="n">
         <v>6</v>
-      </c>
-      <c r="N16" t="n">
-        <v>13</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>10</v>
-      </c>
-      <c r="R16" t="n">
-        <v>12</v>
       </c>
       <c r="S16" t="n">
         <v>0.833</v>
@@ -1871,28 +1871,28 @@
         <v>4</v>
       </c>
       <c r="U16" t="n">
+        <v>7</v>
+      </c>
+      <c r="V16" t="n">
         <v>11</v>
       </c>
-      <c r="V16" t="n">
-        <v>15</v>
-      </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AB16" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -1901,86 +1901,86 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Javonte Smart</t>
+          <t>Georgios Kalaitzakis</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G17" t="n">
         <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5</v>
+        <v>0.455</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
         <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="Q17" t="n">
         <v>4</v>
       </c>
-      <c r="N17" t="n">
-        <v>6</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
       <c r="R17" t="n">
+        <v>9</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="T17" t="n">
         <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3</v>
       </c>
       <c r="U17" t="n">
         <v>4</v>
       </c>
       <c r="V17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="n">
         <v>4</v>
       </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>2</v>
-      </c>
       <c r="AA17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AB17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1989,81 +1989,83 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Brook Lopez</t>
+          <t>Wesley Matthews</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I18" t="n">
-        <v>0.333</v>
+        <v>0.375</v>
       </c>
       <c r="J18" t="n">
         <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="P18" t="n">
-        <v>0.444</v>
+        <v>0.5</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
         <v>0</v>
       </c>
-      <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
         <v>2</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>3</v>
       </c>
-      <c r="V18" t="n">
-        <v>5</v>
-      </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y18" t="n">
         <v>1</v>
       </c>
-      <c r="Y18" t="n">
-        <v>3</v>
-      </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB18" t="n">
         <v>8</v>
@@ -2075,84 +2077,84 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wesley Matthews</t>
+          <t>Brook Lopez</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4</v>
+        <v>0.333</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
       </c>
       <c r="K19" t="n">
+        <v>4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
         <v>5</v>
       </c>
-      <c r="L19" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>0.2</v>
+      </c>
       <c r="P19" t="n">
-        <v>0.6</v>
+        <v>0.444</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
         <v>2</v>
       </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1</v>
-      </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
         <v>3</v>
       </c>
       <c r="AB19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -2160,77 +2162,77 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>6025</v>
+        <v>6265</v>
       </c>
       <c r="G20" t="n">
-        <v>1005</v>
+        <v>1041</v>
       </c>
       <c r="H20" t="n">
-        <v>2223</v>
+        <v>2308</v>
       </c>
       <c r="I20" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="J20" t="n">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="K20" t="n">
-        <v>994</v>
+        <v>1033</v>
       </c>
       <c r="L20" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="M20" t="n">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="N20" t="n">
-        <v>1229</v>
+        <v>1275</v>
       </c>
       <c r="O20" t="n">
         <v>0.524</v>
       </c>
       <c r="P20" t="n">
-        <v>0.533</v>
+        <v>0.532</v>
       </c>
       <c r="Q20" t="n">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="R20" t="n">
-        <v>525</v>
+        <v>552</v>
       </c>
       <c r="S20" t="n">
-        <v>0.747</v>
+        <v>0.746</v>
       </c>
       <c r="T20" t="n">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="U20" t="n">
-        <v>941</v>
+        <v>970</v>
       </c>
       <c r="V20" t="n">
-        <v>1200</v>
+        <v>1241</v>
       </c>
       <c r="W20" t="n">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="X20" t="n">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Y20" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Z20" t="n">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="AA20" t="n">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="AB20" t="n">
-        <v>2763</v>
+        <v>2867</v>
       </c>
     </row>
   </sheetData>
